--- a/TermpaperSOC1/Dataset_termpaper_soc1.xlsx
+++ b/TermpaperSOC1/Dataset_termpaper_soc1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eivin\TECH2 - Høst 2025\TECH2-H25\TermpaperSOC1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37556C1A-3844-4E02-801B-7BD148FD227E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -42,13 +48,21 @@
   <si>
     <t>InflationEU</t>
   </si>
+  <si>
+    <t>Immigration</t>
+  </si>
+  <si>
+    <t>Emigration</t>
+  </si>
+  <si>
+    <t>Net migration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +75,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,49 +110,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I31" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:I31"/>
-  <tableColumns count="9">
-    <tableColumn name="Year" id="1"/>
-    <tableColumn name="GDPgrowthEstonia" id="2"/>
-    <tableColumn name="GDPgrowthEU" id="3"/>
-    <tableColumn name="GDPpercapitaEstonia" id="4"/>
-    <tableColumn name="GDPpercapitaEU" id="5"/>
-    <tableColumn name="UnemplymentEstonia" id="6"/>
-    <tableColumn name="UnemploymentEU" id="7"/>
-    <tableColumn name="InflationEstonia" id="8"/>
-    <tableColumn name="InflationEU" id="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L31" totalsRowShown="0">
+  <autoFilter ref="A1:L31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="GDPgrowthEstonia"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="GDPgrowthEU"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="GDPpercapitaEstonia"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GDPpercapitaEU"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="UnemplymentEstonia"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="UnemploymentEU"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="InflationEstonia"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="InflationEU"/>
+    <tableColumn id="10" xr3:uid="{C6BDAE74-B6B6-4FC0-A78E-1DD72EB9952E}" name="Immigration" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{8587487A-00AE-49D3-8E2C-9A3B3E4D4F5A}" name="Emigration" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{C04E1384-2807-40BE-9094-7194B786573A}" name="Net migration" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -141,10 +178,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -182,71 +219,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,7 +311,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -297,11 +334,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -310,13 +347,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -326,7 +363,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -335,7 +372,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -344,7 +381,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -352,10 +389,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -420,28 +457,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,13 +508,22 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1991</v>
       </c>
       <c r="B2" s="2">
-        <v>-7.99984359444035</v>
+        <v>-7.9998435944403496</v>
       </c>
       <c r="C2" s="2">
         <v>1.4598431595031656</v>
@@ -486,12 +534,12 @@
         <v>1.468</v>
       </c>
       <c r="G2" s="2">
-        <v>8.58763776597261</v>
+        <v>8.5876377659726106</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1992</v>
       </c>
@@ -499,7 +547,7 @@
         <v>-21.1686562081087</v>
       </c>
       <c r="C3" s="2">
-        <v>0.9016711533784303</v>
+        <v>0.90167115337843029</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -507,29 +555,29 @@
         <v>3.681</v>
       </c>
       <c r="G3" s="2">
-        <v>9.237240142563564</v>
+        <v>9.2372401425635644</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1993</v>
       </c>
       <c r="B4" s="2">
-        <v>-5.740494220339201</v>
+        <v>-5.7404942203392011</v>
       </c>
       <c r="C4" s="2">
-        <v>-0.5960113425366131</v>
+        <v>-0.59601134253661314</v>
       </c>
       <c r="D4" s="2">
-        <v>2685.908892873569</v>
+        <v>2685.9088928735691</v>
       </c>
       <c r="E4" s="2">
         <v>15908.786857448837</v>
       </c>
       <c r="F4" s="2">
-        <v>6.544</v>
+        <v>6.5439999999999996</v>
       </c>
       <c r="G4" s="2">
         <v>10.857804127080447</v>
@@ -537,15 +585,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1994</v>
       </c>
       <c r="B5" s="2">
-        <v>-1.642424622498737</v>
+        <v>-1.6424246224987371</v>
       </c>
       <c r="C5" s="2">
-        <v>2.701637570413766</v>
+        <v>2.7016375704137658</v>
       </c>
       <c r="D5" s="2">
         <v>2819.1261210092607</v>
@@ -554,7 +602,7 @@
         <v>16826.135478983055</v>
       </c>
       <c r="F5" s="2">
-        <v>7.561</v>
+        <v>7.5609999999999999</v>
       </c>
       <c r="G5" s="2">
         <v>11.548758247272094</v>
@@ -562,24 +610,24 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1995</v>
       </c>
       <c r="B6" s="2">
-        <v>4.526681792188114</v>
+        <v>4.5266817921881142</v>
       </c>
       <c r="C6" s="2">
-        <v>2.724929926087299</v>
+        <v>2.7249299260872988</v>
       </c>
       <c r="D6" s="2">
         <v>3134.3897534540665</v>
       </c>
       <c r="E6" s="2">
-        <v>19470.10674582785</v>
+        <v>19470.106745827848</v>
       </c>
       <c r="F6" s="2">
-        <v>9.659</v>
+        <v>9.6590000000000007</v>
       </c>
       <c r="G6" s="2">
         <v>11.108900896787144</v>
@@ -587,7 +635,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1996</v>
       </c>
@@ -598,13 +646,13 @@
         <v>1.9163281001230956</v>
       </c>
       <c r="D7" s="2">
-        <v>3380.92630243199</v>
+        <v>3380.9263024319898</v>
       </c>
       <c r="E7" s="2">
         <v>19755.249637362194</v>
       </c>
       <c r="F7" s="2">
-        <v>9.915</v>
+        <v>9.9149999999999991</v>
       </c>
       <c r="G7" s="2">
         <v>11.143036132769666</v>
@@ -612,7 +660,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1997</v>
       </c>
@@ -637,18 +685,18 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1998</v>
       </c>
       <c r="B9" s="2">
-        <v>4.339827611935874</v>
+        <v>4.3398276119358741</v>
       </c>
       <c r="C9" s="2">
-        <v>2.981739238013475</v>
+        <v>2.9817392380134748</v>
       </c>
       <c r="D9" s="2">
-        <v>4093.392477387645</v>
+        <v>4093.3924773876452</v>
       </c>
       <c r="E9" s="2">
         <v>18616.517173649703</v>
@@ -662,18 +710,18 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1999</v>
       </c>
       <c r="B10" s="2">
-        <v>-0.4250253720866226</v>
+        <v>-0.42502537208662261</v>
       </c>
       <c r="C10" s="2">
         <v>3.004099454707017</v>
       </c>
       <c r="D10" s="2">
-        <v>4140.936602321673</v>
+        <v>4140.9366023216726</v>
       </c>
       <c r="E10" s="2">
         <v>18506.599049140048</v>
@@ -687,15 +735,15 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2000</v>
       </c>
       <c r="B11" s="2">
-        <v>10.08763858004616</v>
+        <v>10.087638580046161</v>
       </c>
       <c r="C11" s="2">
-        <v>3.93397600338281</v>
+        <v>3.9339760033828099</v>
       </c>
       <c r="D11" s="2">
         <v>4070.6090241020797</v>
@@ -707,45 +755,63 @@
         <v>13.36</v>
       </c>
       <c r="G11" s="2">
-        <v>9.706491198048012</v>
+        <v>9.7064911980480115</v>
       </c>
       <c r="H11" s="2">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I11" s="2">
-        <v>3.042100806677951</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+        <v>3.0421008066779511</v>
+      </c>
+      <c r="J11" s="5">
+        <v>35</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1784</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-1749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2001</v>
       </c>
       <c r="B12" s="2">
-        <v>5.88074589534277</v>
+        <v>5.8807458953427698</v>
       </c>
       <c r="C12" s="2">
         <v>2.161356845415014</v>
       </c>
       <c r="D12" s="2">
-        <v>4502.666149923917</v>
+        <v>4502.6661499239171</v>
       </c>
       <c r="E12" s="2">
-        <v>17230.65138757404</v>
+        <v>17230.651387574038</v>
       </c>
       <c r="F12" s="2">
         <v>13.134</v>
       </c>
       <c r="G12" s="2">
-        <v>9.210232892492375</v>
+        <v>9.2102328924923746</v>
       </c>
       <c r="H12" s="2">
         <v>5.75</v>
       </c>
       <c r="I12" s="2">
-        <v>3.373968322138667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+        <v>3.3739683221386669</v>
+      </c>
+      <c r="J12" s="5">
+        <v>241</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2175</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-1934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2002</v>
       </c>
@@ -756,10 +822,10 @@
         <v>1.0979136101487086</v>
       </c>
       <c r="D13" s="2">
-        <v>5343.183107607348</v>
+        <v>5343.1831076073477</v>
       </c>
       <c r="E13" s="2">
-        <v>18797.81496811864</v>
+        <v>18797.814968118641</v>
       </c>
       <c r="F13" s="2">
         <v>10.026</v>
@@ -771,21 +837,30 @@
         <v>3.57</v>
       </c>
       <c r="I13" s="2">
-        <v>2.465323191711657</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+        <v>2.4653231917116569</v>
+      </c>
+      <c r="J13" s="5">
+        <v>575</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2038</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-1463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2003</v>
       </c>
       <c r="B14" s="2">
-        <v>7.596301810326452</v>
+        <v>7.5963018103264517</v>
       </c>
       <c r="C14" s="2">
-        <v>0.9371460116505972</v>
+        <v>0.93714601165059719</v>
       </c>
       <c r="D14" s="2">
-        <v>7205.40703313243</v>
+        <v>7205.4070331324301</v>
       </c>
       <c r="E14" s="2">
         <v>23020.959520284312</v>
@@ -794,36 +869,45 @@
         <v>11.288</v>
       </c>
       <c r="G14" s="2">
-        <v>9.703546299055592</v>
+        <v>9.7035462990555921</v>
       </c>
       <c r="H14" s="2">
         <v>1.33</v>
       </c>
       <c r="I14" s="2">
-        <v>2.098472191469232</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+        <v>2.0984721914692321</v>
+      </c>
+      <c r="J14" s="5">
+        <v>967</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3073</v>
+      </c>
+      <c r="L14" s="5">
+        <v>-2106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2004</v>
       </c>
       <c r="B15" s="2">
-        <v>6.800701107586548</v>
+        <v>6.8007011075865478</v>
       </c>
       <c r="C15" s="2">
         <v>2.6002149278682225</v>
       </c>
       <c r="D15" s="2">
-        <v>8916.072827460204</v>
+        <v>8916.0728274602043</v>
       </c>
       <c r="E15" s="2">
         <v>26368.682120548343</v>
       </c>
       <c r="F15" s="2">
-        <v>10.248</v>
+        <v>10.247999999999999</v>
       </c>
       <c r="G15" s="2">
-        <v>9.85574243526537</v>
+        <v>9.8557424352653697</v>
       </c>
       <c r="H15" s="2">
         <v>3.05</v>
@@ -831,13 +915,22 @@
       <c r="I15" s="2">
         <v>2.286217068016748</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="J15" s="5">
+        <v>1097</v>
+      </c>
+      <c r="K15" s="5">
+        <v>2927</v>
+      </c>
+      <c r="L15" s="5">
+        <v>-1830</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2005</v>
       </c>
       <c r="B16" s="2">
-        <v>9.523053864620664</v>
+        <v>9.5230538646206639</v>
       </c>
       <c r="C16" s="2">
         <v>1.9838230420347998</v>
@@ -849,24 +942,33 @@
         <v>27431.503401855603</v>
       </c>
       <c r="F16" s="2">
-        <v>8.033</v>
+        <v>8.0329999999999995</v>
       </c>
       <c r="G16" s="2">
-        <v>9.631481279486804</v>
+        <v>9.6314812794868043</v>
       </c>
       <c r="H16" s="2">
         <v>4.08</v>
       </c>
       <c r="I16" s="2">
-        <v>2.456546929316385</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+        <v>2.4565469293163851</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1436</v>
+      </c>
+      <c r="K16" s="5">
+        <v>4610</v>
+      </c>
+      <c r="L16" s="5">
+        <v>-3174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2006</v>
       </c>
       <c r="B17" s="2">
-        <v>9.762571312066527</v>
+        <v>9.7625713120665267</v>
       </c>
       <c r="C17" s="2">
         <v>3.5649451088690256</v>
@@ -881,21 +983,30 @@
         <v>5.915</v>
       </c>
       <c r="G17" s="2">
-        <v>8.686523341519832</v>
+        <v>8.6865233415198322</v>
       </c>
       <c r="H17" s="2">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I17" s="2">
-        <v>2.666314945770688</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+        <v>2.6663149457706878</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2234</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5527</v>
+      </c>
+      <c r="L17" s="5">
+        <v>-3293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2007</v>
       </c>
       <c r="B18" s="2">
-        <v>7.570918793118821</v>
+        <v>7.5709187931188211</v>
       </c>
       <c r="C18" s="2">
         <v>3.142149391284633</v>
@@ -904,51 +1015,69 @@
         <v>16745.430801114762</v>
       </c>
       <c r="E18" s="2">
-        <v>33704.68646049219</v>
+        <v>33704.686460492187</v>
       </c>
       <c r="F18" s="2">
-        <v>4.592</v>
+        <v>4.5919999999999996</v>
       </c>
       <c r="G18" s="2">
-        <v>7.501805061674956</v>
+        <v>7.5018050616749559</v>
       </c>
       <c r="H18" s="2">
         <v>6.6</v>
       </c>
       <c r="I18" s="2">
-        <v>2.510665652403392</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+        <v>2.5106656524033921</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3741</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4384</v>
+      </c>
+      <c r="L18" s="5">
+        <v>-643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2008</v>
       </c>
       <c r="B19" s="2">
-        <v>-5.125311543088031</v>
+        <v>-5.1253115430880314</v>
       </c>
       <c r="C19" s="2">
-        <v>0.6232529268027349</v>
+        <v>0.62325292680273492</v>
       </c>
       <c r="D19" s="2">
         <v>18205.906411344597</v>
       </c>
       <c r="E19" s="2">
-        <v>37170.42987699426</v>
+        <v>37170.429876994262</v>
       </c>
       <c r="F19" s="2">
-        <v>5.455</v>
+        <v>5.4550000000000001</v>
       </c>
       <c r="G19" s="2">
-        <v>7.241401102890564</v>
+        <v>7.2414011028905643</v>
       </c>
       <c r="H19" s="2">
         <v>10.36</v>
       </c>
       <c r="I19" s="2">
-        <v>4.164971935247636</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+        <v>4.1649719352476362</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3671</v>
+      </c>
+      <c r="K19" s="5">
+        <v>4406</v>
+      </c>
+      <c r="L19" s="5">
+        <v>-735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2009</v>
       </c>
@@ -959,16 +1088,16 @@
         <v>-4.3121506459675345</v>
       </c>
       <c r="D20" s="2">
-        <v>14712.44942179163</v>
+        <v>14712.449421791631</v>
       </c>
       <c r="E20" s="2">
-        <v>33634.93636380065</v>
+        <v>33634.936363800647</v>
       </c>
       <c r="F20" s="2">
         <v>13.548</v>
       </c>
       <c r="G20" s="2">
-        <v>9.210981280077645</v>
+        <v>9.2109812800776449</v>
       </c>
       <c r="H20" s="2">
         <v>-0.08</v>
@@ -976,13 +1105,22 @@
       <c r="I20" s="2">
         <v>0.8392622467938915</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="J20" s="5">
+        <v>3884</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4658</v>
+      </c>
+      <c r="L20" s="5">
+        <v>-774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2010</v>
       </c>
       <c r="B21" s="2">
-        <v>2.449750206399898</v>
+        <v>2.4497502063998979</v>
       </c>
       <c r="C21" s="2">
         <v>2.1845195020449637</v>
@@ -991,22 +1129,31 @@
         <v>14663.70410187046</v>
       </c>
       <c r="E21" s="2">
-        <v>33122.55826746133</v>
+        <v>33122.558267461332</v>
       </c>
       <c r="F21" s="2">
-        <v>16.707</v>
+        <v>16.707000000000001</v>
       </c>
       <c r="G21" s="2">
-        <v>9.872720937778599</v>
+        <v>9.8727209377785989</v>
       </c>
       <c r="H21" s="2">
         <v>2.97</v>
       </c>
       <c r="I21" s="2">
-        <v>1.531122704209266</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+        <v>1.5311227042092661</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2810</v>
+      </c>
+      <c r="K21" s="5">
+        <v>5294</v>
+      </c>
+      <c r="L21" s="5">
+        <v>-2484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2011</v>
       </c>
@@ -1020,22 +1167,31 @@
         <v>17555.545523942612</v>
       </c>
       <c r="E22" s="2">
-        <v>35967.01143556076</v>
+        <v>35967.011435560758</v>
       </c>
       <c r="F22" s="2">
-        <v>12.328</v>
+        <v>12.327999999999999</v>
       </c>
       <c r="G22" s="2">
-        <v>9.927599508381984</v>
+        <v>9.9275995083819844</v>
       </c>
       <c r="H22" s="2">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="I22" s="2">
         <v>3.28944939564209</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="J22" s="5">
+        <v>3709</v>
+      </c>
+      <c r="K22" s="5">
+        <v>6214</v>
+      </c>
+      <c r="L22" s="5">
+        <v>-2505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2012</v>
       </c>
@@ -1043,16 +1199,16 @@
         <v>3.6720187250654135</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.7617854392972845</v>
+        <v>-0.76178543929728448</v>
       </c>
       <c r="D23" s="2">
         <v>17568.213796971362</v>
       </c>
       <c r="E23" s="2">
-        <v>33328.77198576163</v>
+        <v>33328.771985761632</v>
       </c>
       <c r="F23" s="2">
-        <v>10.021</v>
+        <v>10.021000000000001</v>
       </c>
       <c r="G23" s="2">
         <v>10.875226164443658</v>
@@ -1061,10 +1217,19 @@
         <v>3.93</v>
       </c>
       <c r="I23" s="2">
-        <v>2.662841655080202</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+        <v>2.6628416550802019</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2639</v>
+      </c>
+      <c r="K23" s="5">
+        <v>6321</v>
+      </c>
+      <c r="L23" s="5">
+        <v>-3682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2013</v>
       </c>
@@ -1072,16 +1237,16 @@
         <v>1.7564937962186917</v>
       </c>
       <c r="C24" s="2">
-        <v>-0.035674675046124094</v>
+        <v>-3.5674675046124094E-2</v>
       </c>
       <c r="D24" s="2">
-        <v>19310.38749007572</v>
+        <v>19310.387490075718</v>
       </c>
       <c r="E24" s="2">
-        <v>34808.0025773528</v>
+        <v>34808.002577352803</v>
       </c>
       <c r="F24" s="2">
-        <v>8.631</v>
+        <v>8.6310000000000002</v>
       </c>
       <c r="G24" s="2">
         <v>11.349908066067062</v>
@@ -1090,10 +1255,19 @@
         <v>2.78</v>
       </c>
       <c r="I24" s="2">
-        <v>1.219993422743025</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>1.2199934227430249</v>
+      </c>
+      <c r="J24" s="5">
+        <v>4098</v>
+      </c>
+      <c r="K24" s="5">
+        <v>6740</v>
+      </c>
+      <c r="L24" s="5">
+        <v>-2642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2014</v>
       </c>
@@ -1107,10 +1281,10 @@
         <v>20581.789899169544</v>
       </c>
       <c r="E25" s="2">
-        <v>35592.887487554</v>
+        <v>35592.887487553999</v>
       </c>
       <c r="F25" s="2">
-        <v>7.352</v>
+        <v>7.3520000000000003</v>
       </c>
       <c r="G25" s="2">
         <v>10.826668649491266</v>
@@ -1121,8 +1295,17 @@
       <c r="I25" s="2">
         <v>0.1993438265707711</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="J25" s="5">
+        <v>3904</v>
+      </c>
+      <c r="K25" s="5">
+        <v>4637</v>
+      </c>
+      <c r="L25" s="5">
+        <v>-733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2015</v>
       </c>
@@ -1130,16 +1313,16 @@
         <v>1.8381526288293202</v>
       </c>
       <c r="C26" s="2">
-        <v>2.370479841229283</v>
+        <v>2.3704798412292831</v>
       </c>
       <c r="D26" s="2">
         <v>17722.155766952314</v>
       </c>
       <c r="E26" s="2">
-        <v>30769.09064410896</v>
+        <v>30769.090644108961</v>
       </c>
       <c r="F26" s="2">
-        <v>6.412</v>
+        <v>6.4119999999999999</v>
       </c>
       <c r="G26" s="2">
         <v>10.018398713184961</v>
@@ -1148,10 +1331,19 @@
         <v>-0.49</v>
       </c>
       <c r="I26" s="2">
-        <v>-0.06164468006415975</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+        <v>-6.1644680064159747E-2</v>
+      </c>
+      <c r="J26" s="5">
+        <v>15413</v>
+      </c>
+      <c r="K26" s="5">
+        <v>13003</v>
+      </c>
+      <c r="L26" s="5">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2016</v>
       </c>
@@ -1162,16 +1354,16 @@
         <v>1.9461161181005338</v>
       </c>
       <c r="D27" s="2">
-        <v>18666.3736521706</v>
+        <v>18666.373652170601</v>
       </c>
       <c r="E27" s="2">
         <v>31462.434120988473</v>
       </c>
       <c r="F27" s="2">
-        <v>6.882</v>
+        <v>6.8819999999999997</v>
       </c>
       <c r="G27" s="2">
-        <v>9.107661317217856</v>
+        <v>9.1076613172178558</v>
       </c>
       <c r="H27" s="2">
         <v>0.15</v>
@@ -1179,8 +1371,17 @@
       <c r="I27" s="2">
         <v>0.1833348611238293</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="J27" s="5">
+        <v>14822</v>
+      </c>
+      <c r="K27" s="5">
+        <v>13792</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2017</v>
       </c>
@@ -1197,10 +1398,10 @@
         <v>33391.9679020533</v>
       </c>
       <c r="F28" s="2">
-        <v>5.807</v>
+        <v>5.8070000000000004</v>
       </c>
       <c r="G28" s="2">
-        <v>8.134074913328892</v>
+        <v>8.1340749133288917</v>
       </c>
       <c r="H28" s="2">
         <v>3.42</v>
@@ -1208,8 +1409,17 @@
       <c r="I28" s="2">
         <v>1.429107433193026</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="J28" s="5">
+        <v>17616</v>
+      </c>
+      <c r="K28" s="5">
+        <v>12358</v>
+      </c>
+      <c r="L28" s="5">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -1226,19 +1436,28 @@
         <v>36054.39544663854</v>
       </c>
       <c r="F29" s="2">
-        <v>5.412</v>
+        <v>5.4119999999999999</v>
       </c>
       <c r="G29" s="2">
-        <v>7.255923594757344</v>
+        <v>7.2559235947573439</v>
       </c>
       <c r="H29" s="2">
         <v>3.44</v>
       </c>
       <c r="I29" s="2">
-        <v>1.73860861988179</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <v>1.7386086198817901</v>
+      </c>
+      <c r="J29" s="5">
+        <v>17547</v>
+      </c>
+      <c r="K29" s="5">
+        <v>10476</v>
+      </c>
+      <c r="L29" s="5">
+        <v>7071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -1252,22 +1471,31 @@
         <v>24021.250141330624</v>
       </c>
       <c r="E30" s="2">
-        <v>35374.64438271312</v>
+        <v>35374.644382713122</v>
       </c>
       <c r="F30" s="2">
-        <v>4.514</v>
+        <v>4.5140000000000002</v>
       </c>
       <c r="G30" s="2">
         <v>6.688575563759243</v>
       </c>
       <c r="H30" s="2">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I30" s="2">
-        <v>1.630522607543421</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+        <v>1.6305226075434209</v>
+      </c>
+      <c r="J30" s="5">
+        <v>18172</v>
+      </c>
+      <c r="K30" s="5">
+        <v>12801</v>
+      </c>
+      <c r="L30" s="5">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -1275,19 +1503,19 @@
         <v>-2.883807514837784</v>
       </c>
       <c r="C31" s="2">
-        <v>-5.573432883851737</v>
+        <v>-5.5734328838517371</v>
       </c>
       <c r="D31" s="2">
         <v>23933.993942106536</v>
       </c>
       <c r="E31" s="2">
-        <v>34698.40320894273</v>
+        <v>34698.403208942727</v>
       </c>
       <c r="F31" s="2">
-        <v>6.956</v>
+        <v>6.9560000000000004</v>
       </c>
       <c r="G31" s="2">
-        <v>7.053502103390319</v>
+        <v>7.0535021033903194</v>
       </c>
       <c r="H31" s="2">
         <v>-0.44</v>
@@ -1295,8 +1523,18 @@
       <c r="I31" s="2">
         <v>0.4764988527250138</v>
       </c>
+      <c r="J31" s="5">
+        <v>16209</v>
+      </c>
+      <c r="K31" s="5">
+        <v>12427</v>
+      </c>
+      <c r="L31" s="5">
+        <v>3782</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
